--- a/data/raw/implan/master546-2020-02-19.xlsx
+++ b/data/raw/implan/master546-2020-02-19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SA\Project\B4W-19-01\data\raw\implan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554ACCD5-DED7-42E8-90DD-7AA871996368}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0D2A61-DAC2-4908-B0A3-040DEDF63451}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19905" yWindow="3495" windowWidth="24240" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16320" yWindow="3840" windowWidth="28170" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -1304,7 +1304,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
+      <selection pane="bottomLeft" activeCell="C176" sqref="C176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4151,7 +4151,7 @@
         <v>9.1908277739460596E-6</v>
       </c>
       <c r="E142" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
         <v>111</v>
@@ -4831,7 +4831,7 @@
         <v>0.67519082980754497</v>
       </c>
       <c r="E176" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
         <v>69</v>
@@ -6670,15 +6670,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010018C0A5F476DAAB4FAEE8B6788C6F8111" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5f5d46f92e0f1e70563cb0f07c144f4c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5407f444-24f4-4718-bdb7-b4da70682fd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e6f35018e39cb7c42d0c2c7e73495e90" ns2:_="">
     <xsd:import namespace="5407f444-24f4-4718-bdb7-b4da70682fd8"/>
@@ -6810,6 +6801,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF17FE6D-A778-4188-920D-C7F4379786A2}">
   <ds:schemaRefs>
@@ -6827,14 +6827,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C90E8FBC-1D23-4D4D-ABB3-E595D98395DA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53E48DA8-FC59-4CA3-9284-44676661163E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6850,4 +6842,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C90E8FBC-1D23-4D4D-ABB3-E595D98395DA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>